--- a/Work Sheet.xlsx
+++ b/Work Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Project\Android_Project\MyDictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0F6E2B6-6D24-4A60-A4B2-C07AFD2D3165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED49F8C2-CFE6-4769-9B59-4B92048EFF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Number</t>
   </si>
@@ -127,6 +127,36 @@
 dialog_add_new_word.xml
 spinner_array_add_new_word.xml
 themes.xml</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>Create new Textview and spinner dynamically</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>When user click button on Add New Word, EditText and spinner are added to
+more item add</t>
+  </si>
+  <si>
+    <t>Create new Linear Layout and 
+put new dynamically created Spinner and EditText on the layout.</t>
+  </si>
+  <si>
+    <t>AddNewWordDialog
+dialog_add_new_word.xml</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>Create Buttons on Add word dialog</t>
+  </si>
+  <si>
+    <t>Create Add button to save the word into database and cancel button to cancel the work</t>
   </si>
 </sst>
 </file>
@@ -209,13 +239,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,62 +567,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D84475B-46C5-4C32-807D-CB2AF9B04080}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="33.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="42.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="100.8">
+    <row r="4" spans="1:6" ht="86.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -633,7 +663,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -670,6 +700,40 @@
       </c>
       <c r="F7" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Work Sheet.xlsx
+++ b/Work Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Project\Android_Project\MyDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Project\Android_Project\MyDictionary\Work Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED49F8C2-CFE6-4769-9B59-4B92048EFF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0166651-87A1-475B-9A6A-68A8916E1862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Number</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Create new Textview and spinner dynamically</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>When user click button on Add New Word, EditText and spinner are added to
 more item add</t>
   </si>
@@ -156,7 +153,42 @@
     <t>Create Buttons on Add word dialog</t>
   </si>
   <si>
-    <t>Create Add button to save the word into database and cancel button to cancel the work</t>
+    <t>Create Add button to save the word into database and cancel button to cancel the work
+If use click save the word, database is going to be created if not exists.
+If database is already exists or created, data will be saved.
+Database will be "WORD" database and "MEAN" database to save meaning and word seperatly</t>
+  </si>
+  <si>
+    <t>Create SQLite DB Helper class and connect it to app.
+Get data from EditText and Spinner, and save them into database</t>
+  </si>
+  <si>
+    <t>MainActivity
+DBHelper
+AddNewWordDialog
+dialog_add_new_word.xml</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>Add data (word) into ArrayList</t>
+  </si>
+  <si>
+    <t>The word Database Data needs to be added on ArrayList to be shown
+RecyclerView of MainActivity.</t>
+  </si>
+  <si>
+    <t>ArrayList that contains WordsList connected to Adapter to show on Recyclerview.</t>
+  </si>
+  <si>
+    <t>MainActivity
+MainActivityRecyclerViewAdapter
+DBHelper
+AddNewWordDialog
+WordsList
+dialog_add_new_word.xml
+rvmainwords_items.xml</t>
   </si>
 </sst>
 </file>
@@ -567,9 +599,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D84475B-46C5-4C32-807D-CB2AF9B04080}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -579,7 +611,7 @@
     <col min="2" max="2" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -710,30 +742,56 @@
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="72">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="115.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Work Sheet.xlsx
+++ b/Work Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Project\Android_Project\MyDictionary\Work Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0166651-87A1-475B-9A6A-68A8916E1862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B1D938-9C7C-4444-970A-104276FB95A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Number</t>
   </si>
@@ -189,6 +189,24 @@
 WordsList
 dialog_add_new_word.xml
 rvmainwords_items.xml</t>
+  </si>
+  <si>
+    <t>Click Event for Recycler View</t>
+  </si>
+  <si>
+    <t>If user clicks a word, bottom sheet dialog show up and show the word's meaning</t>
+  </si>
+  <si>
+    <t>Set adapter up for Recycler view of bottom sheet dialog and connect to Recycler view.
+Send ArrayLists of Means, Part of Speeches, and show it up at Recycler View</t>
+  </si>
+  <si>
+    <t>MainActivity
+BottomSheetDialogAdapter
+MainActivityRecyclerViewAdapter
+WordBottomSheetDialog
+dialog_bottom_sheet_item_click.xml
+rv_bottom_sheet_dialog_pos_mean.xml</t>
   </si>
 </sst>
 </file>
@@ -599,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D84475B-46C5-4C32-807D-CB2AF9B04080}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -611,8 +629,8 @@
     <col min="2" max="2" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -792,6 +810,26 @@
       </c>
       <c r="F10" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="129.6">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Work Sheet.xlsx
+++ b/Work Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Project\Android_Project\MyDictionary\Work Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Project\Android_Project\MyDictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0166651-87A1-475B-9A6A-68A8916E1862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE05AC04-31B4-4D3E-B5BF-4AD9F6E48A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Number</t>
   </si>
@@ -189,6 +189,34 @@
 WordsList
 dialog_add_new_word.xml
 rvmainwords_items.xml</t>
+  </si>
+  <si>
+    <t>Delete Data</t>
+  </si>
+  <si>
+    <t>User should be able to delete item.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Create CheckBox to verify which item user wants to delete.
+Add Menu option "Delete Word" and if it clicked, 
+Alert Dialog show up to make user choose delete or not.
+If choose yes, the word is deleted from ArrayList and Database.</t>
+  </si>
+  <si>
+    <t>MainActivity
+MainActivityRecyclerViewAdapter
+WordsList
+rvmainwords_items.xml
+main_menu.xml</t>
+  </si>
+  <si>
+    <t>Complete Setting</t>
+  </si>
+  <si>
+    <t>Setting will have option Font size, Font color, and background Color.</t>
   </si>
 </sst>
 </file>
@@ -599,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D84475B-46C5-4C32-807D-CB2AF9B04080}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -611,8 +639,8 @@
     <col min="2" max="2" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -792,6 +820,40 @@
       </c>
       <c r="F10" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="86.4">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Work Sheet.xlsx
+++ b/Work Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Project\Android_Project\MyDictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE05AC04-31B4-4D3E-B5BF-4AD9F6E48A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE158D6-53FD-4BA7-A03A-1AF1C759ACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Number</t>
   </si>
@@ -217,6 +217,31 @@
   </si>
   <si>
     <t>Setting will have option Font size, Font color, and background Color.</t>
+  </si>
+  <si>
+    <t>Set different Screen Size (Tablet Size)</t>
+  </si>
+  <si>
+    <t>If the device is Tablet, use fragment to show word and meaning
+instead of bottom sheet dialog</t>
+  </si>
+  <si>
+    <t>Create new xml files, adapter, and fragement for tablet size.
+In tablet motitors, clicking word shows Meaning and Part of Speeches
+at Fragment rightside of monitor</t>
+  </si>
+  <si>
+    <t>MainActivity
+BottomSheetDialogAdapter
+FragmentRecyclerViewAdapter
+MainActivityRecyclerViewAdapter
+WordBottomSheetDialog
+MainFragment
+OnItemClick (interface)
+enter_from_right.xml (anim)
+activity_main.xml
+activity_main_fragment_xml
+rv_fragment_pos_mean.xml</t>
   </si>
 </sst>
 </file>
@@ -627,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D84475B-46C5-4C32-807D-CB2AF9B04080}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -742,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="115.2">
+    <row r="7" spans="1:6" ht="100.8">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -854,6 +879,26 @@
       </c>
       <c r="D12" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="187.2">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Work Sheet.xlsx
+++ b/Work Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Project\Android_Project\MyDictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE158D6-53FD-4BA7-A03A-1AF1C759ACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69744BA-34F5-4B1B-BFB7-8FCFB131D011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Number</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>User should be able to delete item.</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Create CheckBox to verify which item user wants to delete.
@@ -242,6 +239,18 @@
 activity_main.xml
 activity_main_fragment_xml
 rv_fragment_pos_mean.xml</t>
+  </si>
+  <si>
+    <t>Get Data for "Text Size", "Text Color", and "Background Color" through Dialog,
+then apply the changes to main recyclerview and layout.</t>
+  </si>
+  <si>
+    <t>MainActivity
+MainActivityRecyclerView
+WordsList
+SettingDialog
+activity_main.xml
+dialog_setting.xml</t>
   </si>
 </sst>
 </file>
@@ -654,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D84475B-46C5-4C32-807D-CB2AF9B04080}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -861,24 +870,30 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="100.8">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="187.2">
@@ -886,19 +901,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Work Sheet.xlsx
+++ b/Work Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Project\Android_Project\MyDictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69744BA-34F5-4B1B-BFB7-8FCFB131D011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5D88A6-5361-4E09-9513-A4B9EA41F850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Number</t>
   </si>
@@ -251,6 +251,22 @@
 SettingDialog
 activity_main.xml
 dialog_setting.xml</t>
+  </si>
+  <si>
+    <t>Save options in database</t>
+  </si>
+  <si>
+    <t>When the application restarted, save the options and keep them</t>
+  </si>
+  <si>
+    <t>Create new table for options (Text Size, Text Color, and Background Color), 
+then call it on onCreate of Main Activity LifeCycle, and adapt the options.</t>
+  </si>
+  <si>
+    <t>MainActivity
+DBHelper
+AddNewWordDialog
+SettingDialog</t>
   </si>
 </sst>
 </file>
@@ -661,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D84475B-46C5-4C32-807D-CB2AF9B04080}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -916,6 +932,26 @@
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="57.6">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F2"/>

--- a/Work Sheet.xlsx
+++ b/Work Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Project\Android_Project\MyDictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5D88A6-5361-4E09-9513-A4B9EA41F850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5395D0CE-D50E-47D7-A81B-DAEBB596FD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{E594E368-4672-49CF-B70E-1643209E8C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Number</t>
   </si>
@@ -267,6 +267,30 @@
 DBHelper
 AddNewWordDialog
 SettingDialog</t>
+  </si>
+  <si>
+    <t>Add Game</t>
+  </si>
+  <si>
+    <t>The game for the words is randomly give meaning of the words, then user put answer.</t>
+  </si>
+  <si>
+    <t>Create new classes for the game.
+The game is being worked on Dialog.
+Randomly pick a meaning and if user put answer.</t>
+  </si>
+  <si>
+    <t>MainActivity
+CorrectAnswerDialog
+IncorrectAnswerDialog
+WordGameDialog
+MeaningList
+(anim)dialog_slide_down.xml
+(anim)dialog_slide_up.xml
+dialog_correct_answer.xml (new)
+dialog_game.xml (new)
+dialog_incorrect_answer.xml (new)
+main_menu.xml</t>
   </si>
 </sst>
 </file>
@@ -338,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,6 +381,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D84475B-46C5-4C32-807D-CB2AF9B04080}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -952,6 +982,30 @@
         <v>56</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="172.8">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7"/>
+      <c r="C16" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F2"/>
